--- a/红外遥控器译码记录-Haier/decode.xlsx
+++ b/红外遥控器译码记录-Haier/decode.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B77912-874B-477B-BD66-2EFC8938E8D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE0D80A-0E95-47B5-A3DB-2B0EA5EC7802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>a6</t>
   </si>
@@ -201,6 +201,30 @@
   </si>
   <si>
     <t>ec</t>
+  </si>
+  <si>
+    <t>上面条件+健康气流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷、风速低、16-&gt;17℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制热、风速低、16-&gt;17℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f8</t>
   </si>
 </sst>
 </file>
@@ -530,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2053,42 +2077,99 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+    <row r="36" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1">
+        <v>60</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>80</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>40</v>
+      </c>
+      <c r="G37" s="1">
+        <v>60</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <v>80</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2114,41 +2195,101 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1">
+        <v>60</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>80</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>80</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1">
+        <v>60</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>80</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>80</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2174,41 +2315,101 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>40</v>
+      </c>
+      <c r="G42" s="1">
+        <v>60</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>80</v>
+      </c>
+      <c r="O42" s="1">
+        <v>16</v>
+      </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>40</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>80</v>
+      </c>
+      <c r="O43" s="1">
+        <v>18</v>
+      </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
